--- a/IN/Отпуск.xlsx
+++ b/IN/Отпуск.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowWidth="22260" windowHeight="12650"/>
+    <workbookView windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">ФИО</t>
   </si>
@@ -45,34 +45,19 @@
     <t xml:space="preserve">Федоров Петр Петрович</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">28</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">16</t>
   </si>
 </sst>
 </file>
@@ -394,16 +379,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -419,44 +404,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
